--- a/PANW.xlsx
+++ b/PANW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E672DAC-549D-4B36-A1C5-0B2DFA65CD9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988326E4-6360-4AAF-B4DA-1A45897C1395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54700" yWindow="7980" windowWidth="21880" windowHeight="13310" xr2:uid="{CD6FEF05-F5E7-4796-BC73-F8DE9082C514}"/>
+    <workbookView xWindow="-35610" yWindow="300" windowWidth="25965" windowHeight="16125" activeTab="1" xr2:uid="{CD6FEF05-F5E7-4796-BC73-F8DE9082C514}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,51 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={AD80C17C-A7A7-4686-ABE3-06A19990D37A}</author>
+    <author>tc={9AAA368A-5DE4-4E3C-A263-6235671AC036}</author>
+    <author>tc={99280B4A-1271-4BC9-97D5-5A9010F39840}</author>
+    <author>tc={2087B7BF-DDE5-40A8-ABA4-38AC8A02AB5D}</author>
+  </authors>
+  <commentList>
+    <comment ref="J8" authorId="0" shapeId="0" xr:uid="{AD80C17C-A7A7-4686-ABE3-06A19990D37A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Consensus 9.19B 5/28/25</t>
+      </text>
+    </comment>
+    <comment ref="K8" authorId="1" shapeId="0" xr:uid="{9AAA368A-5DE4-4E3C-A263-6235671AC036}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    10.50B revenue 7/31/26</t>
+      </text>
+    </comment>
+    <comment ref="J20" authorId="2" shapeId="0" xr:uid="{99280B4A-1271-4BC9-97D5-5A9010F39840}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    3.27 consensus 5/28/25</t>
+      </text>
+    </comment>
+    <comment ref="K20" authorId="3" shapeId="0" xr:uid="{2087B7BF-DDE5-40A8-ABA4-38AC8A02AB5D}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    3.68 consensus 5/28/25</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
@@ -254,9 +299,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -275,6 +320,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -306,7 +357,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -324,6 +375,67 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>17860</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>59531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>17860</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>160734</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9E64E95-CDA3-1EEA-0649-AD671358E298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6084094" y="59531"/>
+          <a:ext cx="0" cy="6530578"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Martin Shkreli" id="{F77A3CA5-45CD-4966-B960-52052F9BFE44}" userId="9ffda80931a57275" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -641,11 +753,28 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="J8" dT="2025-05-28T16:40:14.78" personId="{F77A3CA5-45CD-4966-B960-52052F9BFE44}" id="{AD80C17C-A7A7-4686-ABE3-06A19990D37A}">
+    <text>Consensus 9.19B 5/28/25</text>
+  </threadedComment>
+  <threadedComment ref="K8" dT="2025-05-28T16:40:34.98" personId="{F77A3CA5-45CD-4966-B960-52052F9BFE44}" id="{9AAA368A-5DE4-4E3C-A263-6235671AC036}">
+    <text>10.50B revenue 7/31/26</text>
+  </threadedComment>
+  <threadedComment ref="J20" dT="2025-05-28T16:39:19.22" personId="{F77A3CA5-45CD-4966-B960-52052F9BFE44}" id="{99280B4A-1271-4BC9-97D5-5A9010F39840}">
+    <text>3.27 consensus 5/28/25</text>
+  </threadedComment>
+  <threadedComment ref="K20" dT="2025-05-28T16:39:29.29" personId="{F77A3CA5-45CD-4966-B960-52052F9BFE44}" id="{2087B7BF-DDE5-40A8-ABA4-38AC8A02AB5D}">
+    <text>3.68 consensus 5/28/25</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187BB994-4703-4763-904A-CC84503A749A}">
   <dimension ref="B2:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -748,1049 +877,1064 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E657434-E075-4FDA-8DB5-93308775B1A9}">
-  <dimension ref="A1:I70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E657434-E075-4FDA-8DB5-93308775B1A9}">
+  <dimension ref="A1:K70"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C46" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I58" sqref="I58"/>
+      <selection pane="bottomRight" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7265625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.453125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="1"/>
-    <col min="6" max="6" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="1"/>
+    <col min="3" max="5" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="5">
+    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D2" s="5">
         <v>43677</v>
       </c>
-      <c r="D2" s="5">
+      <c r="E2" s="5">
         <v>44043</v>
       </c>
-      <c r="E2" s="5">
+      <c r="F2" s="5">
         <v>44408</v>
       </c>
-      <c r="F2" s="5">
+      <c r="G2" s="5">
         <v>44773</v>
       </c>
-      <c r="G2" s="5">
+      <c r="H2" s="5">
         <v>45138</v>
       </c>
-      <c r="H2" s="5">
+      <c r="I2" s="5">
         <v>45504</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J2" s="5">
+        <v>45869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>7471.5</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>9194.4</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>10208.1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D5" s="3">
         <v>1096.2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <v>1064.2</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>1120.3</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>1363.1</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>1578.4</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>1603.3</v>
       </c>
     </row>
-    <row r="6" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="3">
+      <c r="D6" s="3">
         <v>1803.4</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <v>2344.1999999999998</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>3135.8</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G6" s="3">
         <v>2539</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>3335.4</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>4188.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>1599.4</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>1978.9</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>2235.6999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" s="7" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7">
-        <f>SUM(C5:C7)</f>
+      <c r="D8" s="7">
+        <f t="shared" ref="D8:I8" si="0">SUM(D5:D7)</f>
         <v>2899.6000000000004</v>
       </c>
-      <c r="D8" s="7">
-        <f>SUM(D5:D7)</f>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
         <v>3408.3999999999996</v>
       </c>
-      <c r="E8" s="7">
-        <f>SUM(E5:E7)</f>
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
         <v>4256.1000000000004</v>
       </c>
-      <c r="F8" s="7">
-        <f>SUM(F5:F7)</f>
+      <c r="G8" s="7">
+        <f t="shared" si="0"/>
         <v>5501.5</v>
       </c>
-      <c r="G8" s="7">
-        <f>SUM(G5:G7)</f>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
         <v>6892.7000000000007</v>
       </c>
-      <c r="H8" s="7">
-        <f>SUM(H5:H7)</f>
+      <c r="I8" s="7">
+        <f t="shared" si="0"/>
         <v>8027.5</v>
       </c>
-      <c r="I8" s="7">
-        <f>+H8*1.1</f>
+      <c r="J8" s="7">
+        <f>+I8*1.1</f>
         <v>8830.25</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3">
+      <c r="D9" s="3">
         <v>808.4</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <v>999.5</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1274.9000000000001</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1718.7</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1909.7</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2059.1999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3">
-        <f>+C8-C9</f>
+      <c r="D10" s="3">
+        <f t="shared" ref="D10:I10" si="1">+D8-D9</f>
         <v>2091.2000000000003</v>
       </c>
-      <c r="D10" s="3">
-        <f>+D8-D9</f>
+      <c r="E10" s="3">
+        <f t="shared" si="1"/>
         <v>2408.8999999999996</v>
       </c>
-      <c r="E10" s="3">
-        <f>+E8-E9</f>
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
         <v>2981.2000000000003</v>
       </c>
-      <c r="F10" s="3">
-        <f>+F8-F9</f>
+      <c r="G10" s="3">
+        <f t="shared" si="1"/>
         <v>3782.8</v>
       </c>
-      <c r="G10" s="3">
-        <f>+G8-G9</f>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
         <v>4983.0000000000009</v>
       </c>
-      <c r="H10" s="3">
-        <f>+H8-H9</f>
+      <c r="I10" s="3">
+        <f t="shared" si="1"/>
         <v>5968.3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="3">
+      <c r="D11" s="3">
         <v>539.5</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <v>768.1</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>1140.4000000000001</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>1417.7</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>1604</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>1809.4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="3">
+      <c r="D12" s="3">
         <v>1344</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <v>1520.2</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1753.8</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2148.9</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2544</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>2794.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3">
+      <c r="D13" s="3">
         <v>261.8</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <v>299.60000000000002</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>391.1</v>
       </c>
-      <c r="F13" s="3">
+      <c r="G13" s="3">
         <v>405</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>447.7</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>680.5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3">
-        <f t="shared" ref="C14:D14" si="0">SUM(C11:C13)</f>
+      <c r="D14" s="3">
+        <f t="shared" ref="D14:E14" si="2">SUM(D11:D13)</f>
         <v>2145.3000000000002</v>
       </c>
-      <c r="D14" s="3">
-        <f t="shared" si="0"/>
+      <c r="E14" s="3">
+        <f t="shared" si="2"/>
         <v>2587.9</v>
       </c>
-      <c r="E14" s="3">
-        <f t="shared" ref="E14" si="1">SUM(E11:E13)</f>
+      <c r="F14" s="3">
+        <f t="shared" ref="F14" si="3">SUM(F11:F13)</f>
         <v>3285.2999999999997</v>
       </c>
-      <c r="F14" s="3">
-        <f t="shared" ref="F14:G14" si="2">SUM(F11:F13)</f>
+      <c r="G14" s="3">
+        <f t="shared" ref="G14:H14" si="4">SUM(G11:G13)</f>
         <v>3971.6000000000004</v>
       </c>
-      <c r="G14" s="3">
-        <f t="shared" si="2"/>
+      <c r="H14" s="3">
+        <f t="shared" si="4"/>
         <v>4595.7</v>
       </c>
-      <c r="H14" s="3">
-        <f>SUM(H11:H13)</f>
+      <c r="I14" s="3">
+        <f>SUM(I11:I13)</f>
         <v>5284.4</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="3">
-        <f t="shared" ref="C15:D15" si="3">+C10-C14</f>
+      <c r="D15" s="3">
+        <f t="shared" ref="D15:E15" si="5">+D10-D14</f>
         <v>-54.099999999999909</v>
       </c>
-      <c r="D15" s="3">
-        <f t="shared" si="3"/>
+      <c r="E15" s="3">
+        <f t="shared" si="5"/>
         <v>-179.00000000000045</v>
       </c>
-      <c r="E15" s="3">
-        <f t="shared" ref="E15" si="4">+E10-E14</f>
+      <c r="F15" s="3">
+        <f t="shared" ref="F15" si="6">+F10-F14</f>
         <v>-304.09999999999945</v>
       </c>
-      <c r="F15" s="3">
-        <f t="shared" ref="F15:G15" si="5">+F10-F14</f>
+      <c r="G15" s="3">
+        <f t="shared" ref="G15:H15" si="7">+G10-G14</f>
         <v>-188.80000000000018</v>
       </c>
-      <c r="G15" s="3">
-        <f t="shared" si="5"/>
+      <c r="H15" s="3">
+        <f t="shared" si="7"/>
         <v>387.30000000000109</v>
       </c>
-      <c r="H15" s="3">
-        <f>+H10-H14</f>
+      <c r="I15" s="3">
+        <f>+I10-I14</f>
         <v>683.90000000000055</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="3">
+      <c r="D16" s="3">
         <v>-83.9</v>
       </c>
-      <c r="D16" s="3">
+      <c r="E16" s="3">
         <v>-88.7</v>
       </c>
-      <c r="E16" s="3">
+      <c r="F16" s="3">
         <v>-163.30000000000001</v>
       </c>
-      <c r="F16" s="3">
+      <c r="G16" s="3">
         <f>-27.4+9</f>
         <v>-18.399999999999999</v>
       </c>
-      <c r="G16" s="3">
+      <c r="H16" s="3">
         <f>-27.2+206.2</f>
         <v>179</v>
       </c>
-      <c r="H16" s="3">
+      <c r="I16" s="3">
         <f>-8.3+312.7</f>
         <v>304.39999999999998</v>
       </c>
     </row>
-    <row r="17" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="3">
-        <f t="shared" ref="C17:D17" si="6">+C15+C16</f>
+      <c r="D17" s="3">
+        <f t="shared" ref="D17:E17" si="8">+D15+D16</f>
         <v>-137.99999999999991</v>
       </c>
-      <c r="D17" s="3">
-        <f t="shared" si="6"/>
+      <c r="E17" s="3">
+        <f t="shared" si="8"/>
         <v>-267.70000000000044</v>
       </c>
-      <c r="E17" s="3">
-        <f t="shared" ref="E17" si="7">+E15+E16</f>
+      <c r="F17" s="3">
+        <f t="shared" ref="F17" si="9">+F15+F16</f>
         <v>-467.39999999999947</v>
       </c>
-      <c r="F17" s="3">
-        <f t="shared" ref="F17:G17" si="8">+F15+F16</f>
+      <c r="G17" s="3">
+        <f t="shared" ref="G17:H17" si="10">+G15+G16</f>
         <v>-207.20000000000019</v>
       </c>
-      <c r="G17" s="3">
-        <f t="shared" si="8"/>
+      <c r="H17" s="3">
+        <f t="shared" si="10"/>
         <v>566.30000000000109</v>
       </c>
-      <c r="H17" s="3">
-        <f>+H15+H16</f>
+      <c r="I17" s="3">
+        <f>+I15+I16</f>
         <v>988.30000000000052</v>
       </c>
     </row>
-    <row r="18" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
       <c r="D18" s="3">
         <v>0</v>
       </c>
-      <c r="F18" s="3">
+      <c r="E18" s="3">
         <v>0</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
         <v>126.2</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="3">
-        <f t="shared" ref="C19:D19" si="9">+C17-C18</f>
+      <c r="D19" s="3">
+        <f t="shared" ref="D19:E19" si="11">+D17-D18</f>
         <v>-137.99999999999991</v>
       </c>
-      <c r="D19" s="3">
-        <f t="shared" si="9"/>
+      <c r="E19" s="3">
+        <f t="shared" si="11"/>
         <v>-267.70000000000044</v>
       </c>
-      <c r="E19" s="3">
-        <f t="shared" ref="E19" si="10">+E17-E18</f>
+      <c r="F19" s="3">
+        <f t="shared" ref="F19" si="12">+F17-F18</f>
         <v>-467.39999999999947</v>
       </c>
-      <c r="F19" s="3">
-        <f t="shared" ref="F19:G19" si="11">+F17-F18</f>
+      <c r="G19" s="3">
+        <f t="shared" ref="G19:H19" si="13">+G17-G18</f>
         <v>-207.20000000000019</v>
       </c>
-      <c r="G19" s="3">
-        <f t="shared" si="11"/>
+      <c r="H19" s="3">
+        <f t="shared" si="13"/>
         <v>440.1000000000011</v>
       </c>
-      <c r="H19" s="3">
-        <f>+H17-H18</f>
+      <c r="I19" s="3">
+        <f>+I17-I18</f>
         <v>988.30000000000052</v>
       </c>
     </row>
-    <row r="20" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="2">
-        <f>+C19/C21</f>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <f t="shared" ref="D20:I20" si="14">+D19/D21</f>
         <v>-1.4603174603174593</v>
       </c>
-      <c r="D20" s="2">
-        <f>+D19/D21</f>
+      <c r="E20" s="2">
+        <f t="shared" si="14"/>
         <v>-2.7626418988648136</v>
       </c>
-      <c r="E20" s="2">
-        <f>+E19/E21</f>
+      <c r="F20" s="2">
+        <f t="shared" si="14"/>
         <v>-4.848547717842318</v>
       </c>
-      <c r="F20" s="2">
-        <f>+F19/F21</f>
+      <c r="G20" s="2">
+        <f t="shared" si="14"/>
         <v>-0.70094722598105608</v>
       </c>
-      <c r="G20" s="2">
-        <f>+G19/G21</f>
+      <c r="H20" s="2">
+        <f t="shared" si="14"/>
         <v>1.2857142857142889</v>
       </c>
-      <c r="H20" s="2">
-        <f>+H19/H21</f>
+      <c r="I20" s="2">
+        <f t="shared" si="14"/>
         <v>2.7918079096045214</v>
       </c>
     </row>
-    <row r="21" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="3">
+      <c r="D21" s="3">
         <v>94.5</v>
       </c>
-      <c r="D21" s="3">
+      <c r="E21" s="3">
         <v>96.9</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>96.4</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>295.60000000000002</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>342.3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>354</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="3">
+        <f>+I21</f>
+        <v>354</v>
+      </c>
+      <c r="K21" s="3">
+        <f>+J21</f>
+        <v>354</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="6">
-        <f t="shared" ref="D23:G23" si="12">+D8/C8-1</f>
+      <c r="E23" s="6">
+        <f t="shared" ref="E23:G23" si="15">+E8/D8-1</f>
         <v>0.1754724789626152</v>
       </c>
-      <c r="E23" s="6">
-        <f t="shared" si="12"/>
+      <c r="F23" s="6">
+        <f t="shared" si="15"/>
         <v>0.24870907170519918</v>
       </c>
-      <c r="F23" s="6">
-        <f t="shared" si="12"/>
+      <c r="G23" s="6">
+        <f t="shared" si="15"/>
         <v>0.29261530509151568</v>
-      </c>
-      <c r="G23" s="6">
-        <f>+G8/F8-1</f>
-        <v>0.25287648823048281</v>
       </c>
       <c r="H23" s="6">
         <f>+H8/G8-1</f>
-        <v>0.16463795029523975</v>
+        <v>0.25287648823048281</v>
       </c>
       <c r="I23" s="6">
         <f>+I8/H8-1</f>
+        <v>0.16463795029523975</v>
+      </c>
+      <c r="J23" s="6">
+        <f>+J8/I8-1</f>
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="25" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="3">
+      <c r="I25" s="3">
         <f>1535.2+1043.6+4173.2</f>
         <v>6752</v>
       </c>
     </row>
-    <row r="26" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2618.6</v>
       </c>
     </row>
-    <row r="27" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <f>725.9+1182.1</f>
         <v>1908</v>
       </c>
     </row>
-    <row r="28" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="3">
+      <c r="I28" s="3">
         <f>369+562</f>
         <v>931</v>
       </c>
     </row>
-    <row r="29" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>557.4</v>
       </c>
     </row>
-    <row r="30" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="H30" s="3">
+      <c r="I30" s="3">
         <v>361.1</v>
       </c>
     </row>
-    <row r="31" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H31" s="3">
+      <c r="I31" s="3">
         <v>385.9</v>
       </c>
     </row>
-    <row r="32" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <f>3350.1+374.9</f>
         <v>3725</v>
       </c>
     </row>
-    <row r="33" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2399</v>
       </c>
     </row>
-    <row r="34" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H34" s="3">
+      <c r="I34" s="3">
         <v>352.9</v>
       </c>
     </row>
-    <row r="35" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H35" s="3">
-        <f>SUM(H25:H34)</f>
+      <c r="I35" s="3">
+        <f>SUM(I25:I34)</f>
         <v>19990.900000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H37" s="3">
+      <c r="I37" s="3">
         <v>116.3</v>
       </c>
     </row>
-    <row r="38" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="H38" s="3">
+      <c r="I38" s="3">
         <v>554.70000000000005</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H39" s="3">
+      <c r="I39" s="3">
         <v>506.7</v>
       </c>
     </row>
-    <row r="40" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H40" s="3">
+      <c r="I40" s="3">
         <f>5541.1+5939.4</f>
         <v>11480.5</v>
       </c>
     </row>
-    <row r="41" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>963.9</v>
       </c>
     </row>
-    <row r="42" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>387.7</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>380.5</v>
       </c>
     </row>
-    <row r="44" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>430.9</v>
       </c>
     </row>
-    <row r="45" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5169.7</v>
       </c>
     </row>
-    <row r="46" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="H46" s="3">
-        <f>SUM(H37:H45)</f>
+      <c r="I46" s="3">
+        <f>SUM(I37:I45)</f>
         <v>19990.900000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F48" s="3">
-        <f>+F19</f>
-        <v>-207.20000000000019</v>
-      </c>
       <c r="G48" s="3">
         <f>+G19</f>
-        <v>440.1000000000011</v>
+        <v>-207.20000000000019</v>
       </c>
       <c r="H48" s="3">
         <f>+H19</f>
+        <v>440.1000000000011</v>
+      </c>
+      <c r="I48" s="3">
+        <f>+I19</f>
         <v>988.30000000000052</v>
       </c>
     </row>
-    <row r="49" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>-267</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>439.7</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>2577.6</v>
       </c>
     </row>
-    <row r="50" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F50" s="3">
+      <c r="G50" s="3">
         <v>1011.1</v>
       </c>
-      <c r="G50" s="3">
+      <c r="H50" s="3">
         <v>1074.5</v>
       </c>
-      <c r="H50" s="3">
+      <c r="I50" s="3">
         <v>1075.4000000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F51" s="3">
+      <c r="G51" s="3">
         <v>-3.1</v>
       </c>
-      <c r="G51" s="3">
+      <c r="H51" s="3">
         <v>12.5</v>
       </c>
-      <c r="H51" s="3">
+      <c r="I51" s="3">
         <v>-2033.7</v>
       </c>
     </row>
-    <row r="52" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>282.60000000000002</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>282.2</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>283.3</v>
       </c>
     </row>
-    <row r="53" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F53" s="3">
+      <c r="G53" s="3">
         <v>362.1</v>
       </c>
-      <c r="G53" s="3">
+      <c r="H53" s="3">
         <v>413.4</v>
       </c>
-      <c r="H53" s="3">
+      <c r="I53" s="3">
         <v>446</v>
       </c>
     </row>
-    <row r="54" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>7.2</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6.7</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="55" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F55" s="3">
+      <c r="G55" s="3">
         <v>54.4</v>
       </c>
-      <c r="G55" s="3">
+      <c r="H55" s="3">
         <v>49.9</v>
       </c>
-      <c r="H55" s="3">
+      <c r="I55" s="3">
         <v>55.3</v>
       </c>
     </row>
-    <row r="56" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F56" s="3">
+      <c r="G56" s="3">
         <v>13.5</v>
       </c>
-      <c r="G56" s="3">
+      <c r="H56" s="3">
         <v>-52.2</v>
       </c>
-      <c r="H56" s="3">
+      <c r="I56" s="3">
         <v>-60.1</v>
       </c>
     </row>
-    <row r="57" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <f>-902-30.1-458.8-110+69.3+30.4-44.9+1970</f>
         <v>523.89999999999986</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <f>-320.3-738.7-431.9-270.6+1+84.4-74.8+2301.7</f>
         <v>550.79999999999995</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <f>-154.3-865.9-489.3-134.1-15+3.8+384.5+2180.6</f>
         <v>910.3</v>
       </c>
     </row>
-    <row r="58" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="3">
+      <c r="D58" s="3">
         <v>1055.5999999999999</v>
       </c>
-      <c r="D58" s="3">
+      <c r="E58" s="3">
         <v>1035.7</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1503</v>
-      </c>
-      <c r="F58" s="3">
-        <f>SUM(F49:F57)</f>
-        <v>1984.7</v>
       </c>
       <c r="G58" s="3">
         <f>SUM(G49:G57)</f>
-        <v>2777.5</v>
+        <v>1984.7</v>
       </c>
       <c r="H58" s="3">
         <f>SUM(H49:H57)</f>
+        <v>2777.5</v>
+      </c>
+      <c r="I58" s="3">
+        <f>SUM(I49:I57)</f>
         <v>3257.6000000000004</v>
       </c>
-      <c r="I58" s="3">
-        <f>+H58*1.2</f>
+      <c r="J58" s="3">
+        <f>+I58*1.2</f>
         <v>3909.1200000000003</v>
       </c>
     </row>
-    <row r="60" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <f>-2271.7+449.2+1118.9</f>
         <v>-703.59999999999968</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <f>-5460.4+965.9+2811.5</f>
         <v>-1683</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <f>-3551.3+956.2+1852.6</f>
         <v>-742.50000000000045</v>
       </c>
     </row>
-    <row r="61" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>-37</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>-204.5</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>-610.6</v>
       </c>
     </row>
-    <row r="62" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="3">
+      <c r="D62" s="3">
         <v>-131.19999999999999</v>
       </c>
-      <c r="D62" s="3">
+      <c r="E62" s="3">
         <v>-214.4</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>-116</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>-192.8</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>-146.30000000000001</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>-156.80000000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C63" s="3">
-        <f>SUM(C60:C62)</f>
+      <c r="D63" s="3">
+        <f t="shared" ref="D63:I63" si="16">SUM(D60:D62)</f>
         <v>-131.19999999999999</v>
       </c>
-      <c r="D63" s="3">
-        <f>SUM(D60:D62)</f>
+      <c r="E63" s="3">
+        <f t="shared" si="16"/>
         <v>-214.4</v>
       </c>
-      <c r="E63" s="3">
-        <f>SUM(E60:E62)</f>
+      <c r="F63" s="3">
+        <f t="shared" si="16"/>
         <v>-116</v>
       </c>
-      <c r="F63" s="3">
-        <f>SUM(F60:F62)</f>
+      <c r="G63" s="3">
+        <f t="shared" si="16"/>
         <v>-933.39999999999964</v>
       </c>
-      <c r="G63" s="3">
-        <f>SUM(G60:G62)</f>
+      <c r="H63" s="3">
+        <f t="shared" si="16"/>
         <v>-2033.8</v>
       </c>
-      <c r="H63" s="3">
-        <f>SUM(H60:H62)</f>
+      <c r="I63" s="3">
+        <f t="shared" si="16"/>
         <v>-1509.9000000000003</v>
       </c>
     </row>
-    <row r="65" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F65" s="3">
+      <c r="G65" s="3">
         <v>-0.6</v>
       </c>
-      <c r="G65" s="3">
+      <c r="H65" s="3">
         <v>-1692</v>
       </c>
-      <c r="H65" s="3">
+      <c r="I65" s="3">
         <v>-1033.7</v>
       </c>
     </row>
-    <row r="66" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>-892.3</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>-272.7</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>-566.70000000000005</v>
       </c>
     </row>
-    <row r="67" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="F67" s="3">
+      <c r="G67" s="3">
         <f>136.6-50.3</f>
         <v>86.3</v>
       </c>
-      <c r="G67" s="3">
+      <c r="H67" s="3">
         <f>258.8-20.4</f>
         <v>238.4</v>
       </c>
-      <c r="H67" s="3">
+      <c r="I67" s="3">
         <f>283.9-26.6</f>
         <v>257.29999999999995</v>
       </c>
     </row>
-    <row r="68" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="F68" s="3">
-        <f>SUM(F65:F67)</f>
-        <v>-806.6</v>
-      </c>
       <c r="G68" s="3">
         <f>SUM(G65:G67)</f>
-        <v>-1726.3</v>
+        <v>-806.6</v>
       </c>
       <c r="H68" s="3">
         <f>SUM(H65:H67)</f>
+        <v>-1726.3</v>
+      </c>
+      <c r="I68" s="3">
+        <f>SUM(I65:I67)</f>
         <v>-1343.1000000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C70" s="3">
-        <f t="shared" ref="C70:F70" si="13">+C58+C62</f>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3">
+        <f t="shared" ref="D70:F70" si="17">+D58+D62</f>
         <v>924.39999999999986</v>
       </c>
-      <c r="D70" s="3">
-        <f t="shared" si="13"/>
+      <c r="E70" s="3">
+        <f t="shared" si="17"/>
         <v>821.30000000000007</v>
       </c>
-      <c r="E70" s="3">
-        <f t="shared" si="13"/>
+      <c r="F70" s="3">
+        <f t="shared" si="17"/>
         <v>1387</v>
-      </c>
-      <c r="F70" s="3">
-        <f>+F58+F62</f>
-        <v>1791.9</v>
       </c>
       <c r="G70" s="3">
         <f>+G58+G62</f>
-        <v>2631.2</v>
+        <v>1791.9</v>
       </c>
       <c r="H70" s="3">
         <f>+H58+H62</f>
+        <v>2631.2</v>
+      </c>
+      <c r="I70" s="3">
+        <f>+I58+I62</f>
         <v>3100.8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>